--- a/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
+++ b/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
@@ -4,15 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14220" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>abc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,7 +356,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
+++ b/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
@@ -4,15 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4845" yWindow="4005" windowWidth="11640" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>xyz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,10 +353,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
+++ b/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
@@ -12,14 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -351,15 +353,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
+++ b/TimeRack/driver/New Microsoft Office Excel Worksheet.xlsx
@@ -17,9 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>pqr</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
